--- a/medium alphabet/test_results_18_06.xlsx
+++ b/medium alphabet/test_results_18_06.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="klTest" sheetId="1" r:id="rId1"/>
     <sheet name="meanTest" sheetId="2" r:id="rId2"/>
     <sheet name="lmpTest" sheetId="3" r:id="rId3"/>
-    <sheet name="glrTest" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>gamma\log2(delta)</t>
   </si>
@@ -42,9 +41,6 @@
   </si>
   <si>
     <t>threshold</t>
-  </si>
-  <si>
-    <t>log2(threshold)</t>
   </si>
 </sst>
 </file>
@@ -365,8 +361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1084,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,128 +1371,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>